--- a/SAM (AGUA_and_PARSER)/arquivo_linkado_PAGUE_MENOS.xlsx
+++ b/SAM (AGUA_and_PARSER)/arquivo_linkado_PAGUE_MENOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM-main (pimenta)\SAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM (AGUA_and_PARSER)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E1E909-92CE-4212-900E-0106226B8648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8325C50-C3F1-4C44-80CB-71D32061B6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A40E4808-B293-4E77-BFB4-B7CE7CF7457E}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Valores_faturados Valor</t>
   </si>
   <si>
-    <t>Valores_consumo Valor</t>
-  </si>
-  <si>
     <t>Nr_cliente</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Vencimento</t>
+  </si>
+  <si>
+    <t>Valores_consumo</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,15 +628,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,26 +689,26 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,35 +716,35 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
